--- a/documentum/건축심화세미나(2022)/이벤트 특강/파이썬 모양만 다른 엑셀.xlsx
+++ b/documentum/건축심화세미나(2022)/이벤트 특강/파이썬 모양만 다른 엑셀.xlsx
@@ -1,34 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mk_dockervolume\mkcljpt_volume\documentum\건축심화세미나(2022)\이벤트 특강\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C663B7FD-F073-4946-B921-A07464D0E8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9705" activeTab="3"/>
+    <workbookView xWindow="10680" yWindow="3390" windowWidth="21060" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="4" r:id="rId3"/>
     <sheet name="3" sheetId="5" r:id="rId4"/>
     <sheet name="4" sheetId="3" r:id="rId5"/>
+    <sheet name="5" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>시험 성적</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,26 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=SUM(B5:B21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=AVERAGE(B5:B21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=MAX(B5:B21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=MIN(B5:B21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=COUNT(B5:B21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>=SUM(E2:U2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,13 +224,74 @@
   </si>
   <si>
     <t>장석류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병아리</t>
+  </si>
+  <si>
+    <t>오리</t>
+  </si>
+  <si>
+    <t>낙제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNTIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=COUNTIF(C5:C21,"병아리")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=SUMIF(C5:C21,"병아리",B5:B21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGEIF</t>
+  </si>
+  <si>
+    <t>=AVERAGEIF(C5:C21,"병아리",B5:B21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGEIFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=AVERAGEIFS(B5:B21,C5:C21,"병아리",D5:D21,"pass")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA010DDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LEFT(B8,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=LEFT(B9,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAB011DDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA012DDEA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -355,23 +409,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,11 +703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -789,11 +840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:U9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <f>SUM(E2:U2)</f>
@@ -935,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE(E2:U2)</f>
@@ -949,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <f>MAX(E2:U2)</f>
@@ -963,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <f>MIN(E2:U2)</f>
@@ -977,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3">
         <f>COUNT(E2:U2)</f>
@@ -993,10 +1044,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B4:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1008,39 +1059,35 @@
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G3" s="9"/>
-    </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="10"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>1111</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>1115</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>48</v>
+      <c r="G5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>VLOOKUP(F5,B5:D18,2,FALSE)</f>
@@ -1052,56 +1099,53 @@
         <v>1112</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5">
         <v>98</v>
       </c>
-      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>1113</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5">
         <v>70</v>
       </c>
-      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>1114</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>56</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>1115</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5">
         <v>86</v>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="7" t="str">
         <f>H5</f>
         <v>정호두</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>49</v>
+      <c r="G9" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP(F9,C5:D18,2,FALSE)</f>
@@ -1113,43 +1157,40 @@
         <v>1116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5">
         <v>77</v>
       </c>
-      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>1117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5">
         <v>58</v>
       </c>
-      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>1118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5">
         <v>36</v>
       </c>
-      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>1119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5">
         <v>59</v>
@@ -1160,7 +1201,7 @@
         <v>1120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5">
         <v>87</v>
@@ -1171,7 +1212,7 @@
         <v>1121</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" s="5">
         <v>41</v>
@@ -1182,7 +1223,7 @@
         <v>1122</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5">
         <v>42</v>
@@ -1193,7 +1234,7 @@
         <v>1123</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5">
         <v>23</v>
@@ -1204,7 +1245,7 @@
         <v>1124</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5">
         <v>55</v>
@@ -1218,27 +1259,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -1246,21 +1294,21 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <f>SUM(B5:B21)</f>
-        <v>1161</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IF(B5&gt;=70,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="H5">
-        <f>G5</f>
-        <v>1161</v>
+        <f>COUNTIF(C5:C21,"병아리")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1268,21 +1316,21 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <f>AVERAGE(B5:B21)</f>
-        <v>68.294117647058826</v>
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6:D21" si="0">IF(B6&gt;=70,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H6">
-        <f>G6</f>
-        <v>68.294117647058826</v>
+        <f>SUMIF(C5:C21,"병아리",B5:B21)</f>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1290,21 +1338,21 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <f>MAX(B5:B21)</f>
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H9" si="0">G7</f>
-        <v>100</v>
+        <f>AVERAGEIF(C5:C21,"병아리",B5:B21)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1312,21 +1360,21 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <f>MIN(B5:B21)</f>
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>AVERAGEIFS(B5:B21,C5:C21,"병아리",D5:D21,"pass")</f>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1334,29 +1382,25 @@
         <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <f>COUNT(B5:B21)</f>
-        <v>17</v>
-      </c>
-      <c r="H9">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+        <v>pass</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1364,7 +1408,11 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1372,7 +1420,11 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1380,7 +1432,11 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1388,7 +1444,11 @@
         <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1396,7 +1456,11 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1404,48 +1468,158 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847C535B-4D46-4555-A950-D9AFE664382F}">
+  <dimension ref="B8:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="str">
+        <f>LEFT(B8,3)</f>
+        <v>AAA</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:D20" si="0">LEFT(B9,3)</f>
+        <v>AAB</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ACA</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
